--- a/CarbonFootprint_site/template_results.xlsx
+++ b/CarbonFootprint_site/template_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\PycharmProjects\CarbonFootprintWebApp\CarbonFootprint_site\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pietr\OneDrive\Desktop\Università\2-Magistrale ingegneria meccanica per la sostenibilità\Sustainable energy\Project\progetto_cf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6D4FEE-B17B-4F2A-AA47-81BA6234B35B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85F6983-95DA-40C3-BFC0-F674C841090E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,24 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="74">
   <si>
     <t>DIET</t>
   </si>
@@ -237,166 +250,13 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>beef_herd</t>
-  </si>
-  <si>
-    <t>lumb_mutton</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>beef_dairy</t>
-  </si>
-  <si>
-    <t>chocolate</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>prawns_farmed</t>
-  </si>
-  <si>
-    <t>pig_meat</t>
-  </si>
-  <si>
-    <t>wheat_rye</t>
-  </si>
-  <si>
-    <t>tomatoes</t>
-  </si>
-  <si>
-    <t>maize</t>
-  </si>
-  <si>
-    <t>peas</t>
-  </si>
-  <si>
-    <t>soy_milk</t>
-  </si>
-  <si>
-    <t>poultry_meat</t>
-  </si>
-  <si>
-    <t>olive_oil</t>
-  </si>
-  <si>
-    <t>fish_farmed</t>
-  </si>
-  <si>
-    <t>pasta</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>eggs</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>fish_wildcatch</t>
-  </si>
-  <si>
-    <t>milk</t>
-  </si>
-  <si>
-    <t>cane_sugar</t>
-  </si>
-  <si>
-    <t>groundnuts</t>
-  </si>
-  <si>
-    <t>bananas</t>
-  </si>
-  <si>
-    <t>root_vegetables</t>
-  </si>
-  <si>
-    <t>apples</t>
-  </si>
-  <si>
-    <t>citrus_fruit</t>
-  </si>
-  <si>
-    <t>nuts</t>
-  </si>
-  <si>
-    <t>domestic_flight</t>
-  </si>
-  <si>
-    <t>mediumcar_petrol</t>
-  </si>
-  <si>
-    <t>mediumcar_diesel</t>
-  </si>
-  <si>
-    <t>short_flight</t>
-  </si>
-  <si>
-    <t>long_flight</t>
-  </si>
-  <si>
-    <t>bus</t>
-  </si>
-  <si>
-    <t>motorcycle</t>
-  </si>
-  <si>
-    <t>electric_vehicle</t>
-  </si>
-  <si>
-    <t>national_rail</t>
-  </si>
-  <si>
-    <t>ferry</t>
-  </si>
-  <si>
-    <t>eurostar</t>
-  </si>
-  <si>
-    <t>refrigerator</t>
-  </si>
-  <si>
-    <t>food_cooking</t>
-  </si>
-  <si>
-    <t>oven</t>
-  </si>
-  <si>
-    <t>washing_machine</t>
-  </si>
-  <si>
-    <t>personal_cleaning</t>
-  </si>
-  <si>
-    <t>laptop</t>
-  </si>
-  <si>
-    <t>smartphone</t>
-  </si>
-  <si>
-    <t>heating</t>
-  </si>
-  <si>
-    <t>cotton_shirt</t>
-  </si>
-  <si>
-    <t>cotton_sweatjacket</t>
-  </si>
-  <si>
-    <t>acrylic_jacket</t>
-  </si>
-  <si>
-    <t>woolen_sweater</t>
-  </si>
-  <si>
-    <t>polyester_shirt</t>
-  </si>
-  <si>
-    <t>jeans</t>
+    <t>Pasta</t>
+  </si>
+  <si>
+    <t>Bread</t>
+  </si>
+  <si>
+    <t>Cooling</t>
   </si>
 </sst>
 </file>
@@ -632,7 +492,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-6B28-45C3-A91D-3A83063A2D76}"/>
+                <c16:uniqueId val="{00000001-6A26-4024-9134-06E78655A01B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -653,7 +513,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-6B28-45C3-A91D-3A83063A2D76}"/>
+                <c16:uniqueId val="{00000003-6A26-4024-9134-06E78655A01B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -674,7 +534,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-6B28-45C3-A91D-3A83063A2D76}"/>
+                <c16:uniqueId val="{00000005-6A26-4024-9134-06E78655A01B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -695,15 +555,15 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-6B28-45C3-A91D-3A83063A2D76}"/>
+                <c16:uniqueId val="{00000007-6A26-4024-9134-06E78655A01B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Tables!$C$4:$C$7</c:f>
+              <c:f>Tables!$C$4:$C$9</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Wheat &amp; Rye</c:v>
                 </c:pt>
@@ -715,34 +575,46 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Cane sugar</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Pasta</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bread</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tables!$D$4:$D$7</c:f>
+              <c:f>Tables!$D$4:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7142857142857136E-4</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-6B28-45C3-A91D-3A83063A2D76}"/>
+              <c16:uniqueId val="{00000008-6A26-4024-9134-06E78655A01B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -792,21 +664,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -908,7 +765,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-533E-4871-B022-0CDE31D1FAEA}"/>
+                <c16:uniqueId val="{00000001-3498-4AE3-B212-76E422BAB129}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -929,7 +786,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-533E-4871-B022-0CDE31D1FAEA}"/>
+                <c16:uniqueId val="{00000003-3498-4AE3-B212-76E422BAB129}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -950,7 +807,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-533E-4871-B022-0CDE31D1FAEA}"/>
+                <c16:uniqueId val="{00000005-3498-4AE3-B212-76E422BAB129}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -971,7 +828,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-533E-4871-B022-0CDE31D1FAEA}"/>
+                <c16:uniqueId val="{00000007-3498-4AE3-B212-76E422BAB129}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -992,7 +849,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-533E-4871-B022-0CDE31D1FAEA}"/>
+                <c16:uniqueId val="{00000009-3498-4AE3-B212-76E422BAB129}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1013,7 +870,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-533E-4871-B022-0CDE31D1FAEA}"/>
+                <c16:uniqueId val="{0000000B-3498-4AE3-B212-76E422BAB129}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1050,29 +907,29 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18383561643835619</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1180821917808219</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-533E-4871-B022-0CDE31D1FAEA}"/>
+              <c16:uniqueId val="{0000000C-3498-4AE3-B212-76E422BAB129}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1122,21 +979,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1238,7 +1080,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-1B03-4C16-885C-18CC25BD348E}"/>
+                <c16:uniqueId val="{00000001-19CB-495C-97F8-65BC91352CCC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1259,7 +1101,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-1B03-4C16-885C-18CC25BD348E}"/>
+                <c16:uniqueId val="{00000003-19CB-495C-97F8-65BC91352CCC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1280,7 +1122,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-1B03-4C16-885C-18CC25BD348E}"/>
+                <c16:uniqueId val="{00000005-19CB-495C-97F8-65BC91352CCC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1301,7 +1143,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-1B03-4C16-885C-18CC25BD348E}"/>
+                <c16:uniqueId val="{00000007-19CB-495C-97F8-65BC91352CCC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1332,23 +1174,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.8285714285714279E-2</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1228512720156556</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.301917808219178</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.41778</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-1B03-4C16-885C-18CC25BD348E}"/>
+              <c16:uniqueId val="{00000008-19CB-495C-97F8-65BC91352CCC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1398,21 +1240,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1514,7 +1341,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-7103-434A-BF87-E9558BEC5CDE}"/>
+                <c16:uniqueId val="{00000001-F13D-4B52-95A9-7333C3B22A4B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1535,7 +1362,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-7103-434A-BF87-E9558BEC5CDE}"/>
+                <c16:uniqueId val="{00000003-F13D-4B52-95A9-7333C3B22A4B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1556,7 +1383,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-7103-434A-BF87-E9558BEC5CDE}"/>
+                <c16:uniqueId val="{00000005-F13D-4B52-95A9-7333C3B22A4B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1577,7 +1404,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-7103-434A-BF87-E9558BEC5CDE}"/>
+                <c16:uniqueId val="{00000007-F13D-4B52-95A9-7333C3B22A4B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1598,7 +1425,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-7103-434A-BF87-E9558BEC5CDE}"/>
+                <c16:uniqueId val="{00000009-F13D-4B52-95A9-7333C3B22A4B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1619,7 +1446,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-7103-434A-BF87-E9558BEC5CDE}"/>
+                <c16:uniqueId val="{0000000B-F13D-4B52-95A9-7333C3B22A4B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1642,7 +1469,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-7103-434A-BF87-E9558BEC5CDE}"/>
+                <c16:uniqueId val="{0000000D-F13D-4B52-95A9-7333C3B22A4B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1665,7 +1492,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-7103-434A-BF87-E9558BEC5CDE}"/>
+                <c16:uniqueId val="{0000000F-F13D-4B52-95A9-7333C3B22A4B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1688,7 +1515,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-7103-434A-BF87-E9558BEC5CDE}"/>
+                <c16:uniqueId val="{00000011-F13D-4B52-95A9-7333C3B22A4B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1711,7 +1538,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-7103-434A-BF87-E9558BEC5CDE}"/>
+                <c16:uniqueId val="{00000013-F13D-4B52-95A9-7333C3B22A4B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1760,41 +1587,41 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.2857142857142858E-2</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-7103-434A-BF87-E9558BEC5CDE}"/>
+              <c16:uniqueId val="{00000014-F13D-4B52-95A9-7333C3B22A4B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1844,21 +1671,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1960,7 +1772,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-1552-4AC3-8A9B-171803D19D6C}"/>
+                <c16:uniqueId val="{00000001-7026-4CF5-961F-2D743EC1F528}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1981,7 +1793,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-1552-4AC3-8A9B-171803D19D6C}"/>
+                <c16:uniqueId val="{00000003-7026-4CF5-961F-2D743EC1F528}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2002,7 +1814,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-1552-4AC3-8A9B-171803D19D6C}"/>
+                <c16:uniqueId val="{00000005-7026-4CF5-961F-2D743EC1F528}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2023,7 +1835,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-1552-4AC3-8A9B-171803D19D6C}"/>
+                <c16:uniqueId val="{00000007-7026-4CF5-961F-2D743EC1F528}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2044,7 +1856,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-1552-4AC3-8A9B-171803D19D6C}"/>
+                <c16:uniqueId val="{00000009-7026-4CF5-961F-2D743EC1F528}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2065,7 +1877,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-1552-4AC3-8A9B-171803D19D6C}"/>
+                <c16:uniqueId val="{0000000B-7026-4CF5-961F-2D743EC1F528}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2088,7 +1900,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-1552-4AC3-8A9B-171803D19D6C}"/>
+                <c16:uniqueId val="{0000000D-7026-4CF5-961F-2D743EC1F528}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2111,7 +1923,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-1552-4AC3-8A9B-171803D19D6C}"/>
+                <c16:uniqueId val="{0000000F-7026-4CF5-961F-2D743EC1F528}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2134,7 +1946,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-1552-4AC3-8A9B-171803D19D6C}"/>
+                <c16:uniqueId val="{00000011-7026-4CF5-961F-2D743EC1F528}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2157,7 +1969,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-1552-4AC3-8A9B-171803D19D6C}"/>
+                <c16:uniqueId val="{00000013-7026-4CF5-961F-2D743EC1F528}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2180,7 +1992,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-1552-4AC3-8A9B-171803D19D6C}"/>
+                <c16:uniqueId val="{00000015-7026-4CF5-961F-2D743EC1F528}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2203,7 +2015,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-1552-4AC3-8A9B-171803D19D6C}"/>
+                <c16:uniqueId val="{00000017-7026-4CF5-961F-2D743EC1F528}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2227,7 +2039,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000019-1552-4AC3-8A9B-171803D19D6C}"/>
+                <c16:uniqueId val="{00000019-7026-4CF5-961F-2D743EC1F528}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2251,7 +2063,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001B-1552-4AC3-8A9B-171803D19D6C}"/>
+                <c16:uniqueId val="{0000001B-7026-4CF5-961F-2D743EC1F528}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2312,53 +2124,53 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.7142857142857136E-4</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.2857142857142851E-3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001C-1552-4AC3-8A9B-171803D19D6C}"/>
+              <c16:uniqueId val="{0000001C-7026-4CF5-961F-2D743EC1F528}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2408,21 +2220,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -2524,7 +2321,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-993F-4AF2-A47D-E84E020CAA29}"/>
+                <c16:uniqueId val="{00000001-3E30-40F9-9466-2BE7C56BCA91}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2545,7 +2342,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-993F-4AF2-A47D-E84E020CAA29}"/>
+                <c16:uniqueId val="{00000003-3E30-40F9-9466-2BE7C56BCA91}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2566,7 +2363,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-993F-4AF2-A47D-E84E020CAA29}"/>
+                <c16:uniqueId val="{00000005-3E30-40F9-9466-2BE7C56BCA91}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2594,20 +2391,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.8571428571428567E-3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7142857142857136E-4</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2857142857142858E-2</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-993F-4AF2-A47D-E84E020CAA29}"/>
+              <c16:uniqueId val="{00000006-3E30-40F9-9466-2BE7C56BCA91}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2657,21 +2454,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -2773,7 +2555,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-33E3-4C41-8FB5-775CD94954B4}"/>
+                <c16:uniqueId val="{00000001-D148-4929-B0DD-266A33FE3B02}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2794,7 +2576,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-33E3-4C41-8FB5-775CD94954B4}"/>
+                <c16:uniqueId val="{00000003-D148-4929-B0DD-266A33FE3B02}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2815,7 +2597,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-33E3-4C41-8FB5-775CD94954B4}"/>
+                <c16:uniqueId val="{00000005-D148-4929-B0DD-266A33FE3B02}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2843,20 +2625,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.1369863013698631E-3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.1428571428571442E-2</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.928571428571429E-2</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-33E3-4C41-8FB5-775CD94954B4}"/>
+              <c16:uniqueId val="{00000006-D148-4929-B0DD-266A33FE3B02}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2906,21 +2688,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -3027,7 +2794,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-7FDB-41F9-9837-A32894C244BC}"/>
+                <c16:uniqueId val="{00000001-4445-4D03-93FE-2E447462116C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3048,7 +2815,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-7FDB-41F9-9837-A32894C244BC}"/>
+                <c16:uniqueId val="{00000003-4445-4D03-93FE-2E447462116C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3069,7 +2836,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-7FDB-41F9-9837-A32894C244BC}"/>
+                <c16:uniqueId val="{00000005-4445-4D03-93FE-2E447462116C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3090,7 +2857,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-7FDB-41F9-9837-A32894C244BC}"/>
+                <c16:uniqueId val="{00000007-4445-4D03-93FE-2E447462116C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3121,23 +2888,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.928571428571429E-2</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-7FDB-41F9-9837-A32894C244BC}"/>
+              <c16:uniqueId val="{00000008-4445-4D03-93FE-2E447462116C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3187,21 +2954,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -3303,7 +3055,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-9071-45C5-9346-1C0F13082E48}"/>
+                <c16:uniqueId val="{00000001-8A04-41D7-9411-2B4BC3278020}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3324,7 +3076,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-9071-45C5-9346-1C0F13082E48}"/>
+                <c16:uniqueId val="{00000003-8A04-41D7-9411-2B4BC3278020}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3345,7 +3097,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-9071-45C5-9346-1C0F13082E48}"/>
+                <c16:uniqueId val="{00000005-8A04-41D7-9411-2B4BC3278020}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3366,7 +3118,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-9071-45C5-9346-1C0F13082E48}"/>
+                <c16:uniqueId val="{00000007-8A04-41D7-9411-2B4BC3278020}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3397,23 +3149,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.1428571428571442E-2</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-9071-45C5-9346-1C0F13082E48}"/>
+              <c16:uniqueId val="{00000008-8A04-41D7-9411-2B4BC3278020}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3463,21 +3215,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -3579,7 +3316,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-3D65-491F-BB4B-D2490E11E05E}"/>
+                <c16:uniqueId val="{00000001-64B6-4EC0-B3DF-37AFE1070512}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3600,7 +3337,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-3D65-491F-BB4B-D2490E11E05E}"/>
+                <c16:uniqueId val="{00000003-64B6-4EC0-B3DF-37AFE1070512}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3621,7 +3358,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-3D65-491F-BB4B-D2490E11E05E}"/>
+                <c16:uniqueId val="{00000005-64B6-4EC0-B3DF-37AFE1070512}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3649,20 +3386,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1369863013698631E-3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-3D65-491F-BB4B-D2490E11E05E}"/>
+              <c16:uniqueId val="{00000006-64B6-4EC0-B3DF-37AFE1070512}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3712,21 +3449,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -3828,7 +3550,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-1447-4846-A666-E3EBDB9B4662}"/>
+                <c16:uniqueId val="{00000001-E2C5-465E-BA94-A447ECC8B1E9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3849,7 +3571,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-1447-4846-A666-E3EBDB9B4662}"/>
+                <c16:uniqueId val="{00000003-E2C5-465E-BA94-A447ECC8B1E9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3870,7 +3592,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-1447-4846-A666-E3EBDB9B4662}"/>
+                <c16:uniqueId val="{00000005-E2C5-465E-BA94-A447ECC8B1E9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3891,7 +3613,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-1447-4846-A666-E3EBDB9B4662}"/>
+                <c16:uniqueId val="{00000007-E2C5-465E-BA94-A447ECC8B1E9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3912,7 +3634,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-1447-4846-A666-E3EBDB9B4662}"/>
+                <c16:uniqueId val="{00000009-E2C5-465E-BA94-A447ECC8B1E9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3933,7 +3655,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-1447-4846-A666-E3EBDB9B4662}"/>
+                <c16:uniqueId val="{0000000B-E2C5-465E-BA94-A447ECC8B1E9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3956,7 +3678,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-1447-4846-A666-E3EBDB9B4662}"/>
+                <c16:uniqueId val="{0000000D-E2C5-465E-BA94-A447ECC8B1E9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3979,15 +3701,15 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-1447-4846-A666-E3EBDB9B4662}"/>
+                <c16:uniqueId val="{0000000F-E2C5-465E-BA94-A447ECC8B1E9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Tables!$A$37:$A$44</c:f>
+              <c:f>Tables!$A$37:$A$45</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Refrigerator</c:v>
                 </c:pt>
@@ -4011,46 +3733,52 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Heating</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Cooling</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tables!$B$37:$B$44</c:f>
+              <c:f>Tables!$B$37:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0479999999999997E-2</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.62829999999999997</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.59900000000000009</c:v>
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-1447-4846-A666-E3EBDB9B4662}"/>
+              <c16:uniqueId val="{00000010-E2C5-465E-BA94-A447ECC8B1E9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4100,21 +3828,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -4789,23 +4502,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" customWidth="1"/>
+    <col min="5" max="5" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="30.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -4815,7 +4528,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -4829,7 +4542,7 @@
       </c>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4852,207 +4565,217 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4">
-        <f>SUMIF(Sheet3!A:A, "beef_herd", Sheet3!B:B)</f>
-        <v>4.2857142857142858E-2</v>
+      <c r="B4" s="4" t="e">
+        <f>_xlfn.XLOOKUP("beef_herd",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4">
-        <f>SUMIF(Sheet3!A:A, "wheat_rye", Sheet3!B:B)</f>
-        <v>0</v>
+      <c r="D4" s="4" t="e">
+        <f>_xlfn.XLOOKUP("wheat_rye",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4">
-        <f>SUMIF(Sheet3!A:A, "apples", Sheet3!B:B)</f>
-        <v>0</v>
+      <c r="F4" s="4" t="e">
+        <f>_xlfn.XLOOKUP("apples",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4">
-        <f>SUMIF(Sheet3!A:A, "lumb_mutton", Sheet3!B:B)</f>
-        <v>0</v>
+      <c r="B5" s="4" t="e">
+        <f>_xlfn.XLOOKUP("lumb_mutton",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4">
-        <f>SUMIF(Sheet3!A:A, "maize",  Sheet3!B:B)</f>
-        <v>5.7142857142857136E-4</v>
+      <c r="D5" s="4" t="e">
+        <f>_xlfn.XLOOKUP("maize",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="4">
-        <f>SUMIF(Sheet3!A:A, "chocolate", Sheet3!B:B)</f>
-        <v>0</v>
+      <c r="F5" s="4" t="e">
+        <f>_xlfn.XLOOKUP("chocolate",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4">
-        <f>SUMIF(Sheet3!A:A, "cheese", Sheet3!B:B)</f>
-        <v>0</v>
+      <c r="B6" s="4" t="e">
+        <f>_xlfn.XLOOKUP("cheese",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4">
-        <f>SUMIF(Sheet3!A:A, "rice", Sheet3!B:B)</f>
-        <v>0</v>
+      <c r="D6" s="4" t="e">
+        <f>_xlfn.XLOOKUP("rice",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="4">
-        <f>SUMIF(Sheet3!A:A, "coffee", Sheet3!B:B)</f>
-        <v>0</v>
+      <c r="F6" s="4" t="e">
+        <f>_xlfn.XLOOKUP("coffee",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4">
-        <f>SUMIF(Sheet3!A:A, "beef_dairy", Sheet3!B:B)</f>
-        <v>0</v>
+      <c r="B7" s="4" t="e">
+        <f>_xlfn.XLOOKUP("beef_dairy",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="4">
-        <f>SUMIF(Sheet3!A:A, "cane_sugar", Sheet3!B:B)</f>
-        <v>0</v>
+      <c r="D7" s="4" t="e">
+        <f>_xlfn.XLOOKUP("cane_sugar",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="4">
-        <f>SUMIF(Sheet3!A:A, "tomatoes", Sheet3!B:B)</f>
-        <v>0</v>
+      <c r="F7" s="4" t="e">
+        <f>_xlfn.XLOOKUP("tomatoes",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4">
-        <f>SUMIF(Sheet3!A:A, "poultry_meat", Sheet3!B:B)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="4"/>
+      <c r="B8" s="4" t="e">
+        <f>_xlfn.XLOOKUP("poultry_meat",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="4" t="e">
+        <f>_xlfn.XLOOKUP("pasta",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="4">
-        <f>SUMIF(Sheet3!A:A, "maize", Sheet3!B:B)</f>
-        <v>5.7142857142857136E-4</v>
+      <c r="F8" s="4" t="e">
+        <f>_xlfn.XLOOKUP("maize",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="4">
-        <f>SUMIF(Sheet3!A:A, "pig_meat", Sheet3!B:B)</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="4" t="e">
+        <f>_xlfn.XLOOKUP("pig_meat",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="4" t="e">
+        <f>_xlfn.XLOOKUP("bread",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="4">
-        <f>SUMIF(Sheet3!A:A, "peas", Sheet3!B:B)</f>
-        <v>0</v>
+      <c r="F9" s="4" t="e">
+        <f>_xlfn.XLOOKUP("peas",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="4">
-        <f>SUMIF(Sheet3!A:A, "prawns_farmed", Sheet3!B:B)</f>
-        <v>0</v>
+      <c r="B10" s="4" t="e">
+        <f>_xlfn.XLOOKUP("prawns_farmed",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="4"/>
       <c r="E10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="4">
-        <f>SUMIF(Sheet3!A:A, "soy_milk", Sheet3!B:B)</f>
-        <v>0</v>
+      <c r="F10" s="4" t="e">
+        <f>_xlfn.XLOOKUP("soy_milk",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="4">
-        <f>SUMIF(Sheet3!A:A, "fish_farmed", Sheet3!B:B)</f>
-        <v>0</v>
+      <c r="B11" s="4" t="e">
+        <f>_xlfn.XLOOKUP("fish_farmed",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="4"/>
       <c r="E11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="4">
-        <f>SUMIF(Sheet3!A:A, "olive_oil", Sheet3!B:B)</f>
-        <v>4.2857142857142851E-3</v>
+      <c r="F11" s="4" t="e">
+        <f>_xlfn.XLOOKUP("olive_oil",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="4">
-        <f>SUMIF(Sheet3!A:A, "fish_wildcatch", Sheet3!B:B)</f>
-        <v>0</v>
+      <c r="B12" s="4" t="e">
+        <f>_xlfn.XLOOKUP("fish_wildcatch",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="4"/>
       <c r="E12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="4">
-        <f>SUMIF(Sheet3!A:A, "milk", Sheet3!B:B)</f>
-        <v>0</v>
+      <c r="F12" s="4" t="e">
+        <f>_xlfn.XLOOKUP("milk",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="4">
-        <f>SUMIF(Sheet3!A:A, "eggs", Sheet3!B:B)</f>
-        <v>0</v>
+      <c r="B13" s="4" t="e">
+        <f>_xlfn.XLOOKUP("eggs",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="4"/>
       <c r="E13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="4">
-        <f>SUMIF(Sheet3!A:A, "groundnuts", Sheet3!B:B)</f>
-        <v>0</v>
+      <c r="F13" s="4" t="e">
+        <f>_xlfn.XLOOKUP("groundnuts",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="2"/>
@@ -5060,12 +4783,12 @@
       <c r="E14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="4">
-        <f>SUMIF(Sheet3!A:A, "bananas", Sheet3!B:B)</f>
-        <v>0</v>
+      <c r="F14" s="4" t="e">
+        <f>_xlfn.XLOOKUP("bananas",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
@@ -5073,12 +4796,12 @@
       <c r="E15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="4">
-        <f>SUMIF(Sheet3!A:A, "root_vegetables", Sheet3!B:B)</f>
-        <v>0</v>
+      <c r="F15" s="4" t="e">
+        <f>_xlfn.XLOOKUP("root_vegetables",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2"/>
@@ -5086,12 +4809,12 @@
       <c r="E16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="4">
-        <f>SUMIF(Sheet3!A:A, "citrus_fruit", Sheet3!B:B)</f>
-        <v>0</v>
+      <c r="F16" s="4" t="e">
+        <f>_xlfn.XLOOKUP("citrus_fruit",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="4"/>
       <c r="C17" s="2"/>
@@ -5099,69 +4822,69 @@
       <c r="E17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="4">
-        <f>SUMIF(Sheet3!A:A, "nuts", Sheet3!B:B)</f>
-        <v>0</v>
+      <c r="F17" s="4" t="e">
+        <f>_xlfn.XLOOKUP("nuts",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="e">
         <f>SUM(F4:F17)</f>
-        <v>4.8571428571428567E-3</v>
+        <v>#N/A</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="e">
         <f>B19*0.365</f>
-        <v>1.7728571428571426E-3</v>
+        <v>#N/A</v>
       </c>
       <c r="E19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>36</v>
       </c>
-      <c r="B20">
-        <f>SUM(D4:D7)</f>
-        <v>5.7142857142857136E-4</v>
+      <c r="B20" t="e">
+        <f>SUM(D4:D9)</f>
+        <v>#N/A</v>
       </c>
       <c r="C20" t="s">
         <v>34</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="e">
         <f>B20*0.365</f>
-        <v>2.0857142857142854E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="E20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="e">
         <f>SUM(B4:B13)</f>
-        <v>4.2857142857142858E-2</v>
+        <v>#N/A</v>
       </c>
       <c r="C21" t="s">
         <v>34</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="e">
         <f>B21*0.365</f>
-        <v>1.5642857142857142E-2</v>
+        <v>#N/A</v>
       </c>
       <c r="E21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>37</v>
       </c>
@@ -5171,7 +4894,7 @@
       <c r="E23" s="11"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>38</v>
       </c>
@@ -5185,7 +4908,7 @@
       </c>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
@@ -5205,151 +4928,151 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="4">
-        <f>SUMIF(Sheet3!A:A, "bus", Sheet3!B:B)</f>
-        <v>0</v>
+      <c r="B26" s="4" t="e">
+        <f>_xlfn.XLOOKUP("bus",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="4">
-        <f>SUMIF(Sheet3!A:A,"mediumcar_petrol",Sheet3!B:B)</f>
-        <v>0</v>
+      <c r="D26" s="4" t="e">
+        <f>_xlfn.XLOOKUP("mediumcar_petrol",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="4">
-        <f>SUMIF(Sheet3!A:A,"domestic_flight",Sheet3!B:B)</f>
-        <v>0</v>
+      <c r="F26" s="4" t="e">
+        <f>_xlfn.XLOOKUP("domestic_flight",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="4">
-        <f>SUMIF(Sheet3!A:A, "national_rail", Sheet3!B:B)</f>
-        <v>2.928571428571429E-2</v>
+      <c r="B27" s="4" t="e">
+        <f>_xlfn.XLOOKUP("national_rail",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="4">
-        <f>SUMIF(Sheet3!A:A,"mediumcar_diesel", Sheet3!B:B)</f>
-        <v>0</v>
+      <c r="D27" s="4" t="e">
+        <f>_xlfn.XLOOKUP("mediumcar_diesel",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="4">
-        <f>SUMIF(Sheet3!A:A,"short_flight", Sheet3!B:B)</f>
-        <v>2.1369863013698631E-3</v>
+      <c r="F27" s="4" t="e">
+        <f>_xlfn.XLOOKUP("short_flight",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="4">
-        <f>SUMIF(Sheet3!A:A, "ferry", Sheet3!B:B)</f>
-        <v>0</v>
+      <c r="B28" s="4" t="e">
+        <f>_xlfn.XLOOKUP("ferry",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="4">
-        <f>SUMIF(Sheet3!A:A,"motorcycle", Sheet3!B:B)</f>
-        <v>0</v>
+      <c r="D28" s="4" t="e">
+        <f>_xlfn.XLOOKUP("motorcycle",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="4">
-        <f>SUMIF(Sheet3!A:A, "long_flight", Sheet3!B:B)</f>
-        <v>0</v>
+      <c r="F28" s="4" t="e">
+        <f>_xlfn.XLOOKUP("long_flight",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="4">
-        <f>SUMIF(Sheet3!A:A, "eurostar", Sheet3!B:B)</f>
-        <v>0</v>
+      <c r="B29" s="4" t="e">
+        <f>_xlfn.XLOOKUP("eurostar",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="4">
-        <f>SUMIF(Sheet3!A:A, "electric_vehicle", Sheet3!B:B)</f>
-        <v>9.1428571428571442E-2</v>
+      <c r="D29" s="4" t="e">
+        <f>_xlfn.XLOOKUP("electric_vehicle",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>40</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="e">
         <f>SUM(F26:F28)</f>
-        <v>2.1369863013698631E-3</v>
+        <v>#N/A</v>
       </c>
       <c r="C31" t="s">
         <v>34</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="e">
         <f>B31*0.365</f>
-        <v>7.7999999999999999E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="E31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>39</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="e">
         <f>SUM(D26:D29)</f>
-        <v>9.1428571428571442E-2</v>
+        <v>#N/A</v>
       </c>
       <c r="C32" t="s">
         <v>34</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="e">
         <f>B32*0.365</f>
-        <v>3.3371428571428573E-2</v>
+        <v>#N/A</v>
       </c>
       <c r="E32" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="e">
         <f>SUM(B26:B29)</f>
-        <v>2.928571428571429E-2</v>
+        <v>#N/A</v>
       </c>
       <c r="C33" t="s">
         <v>34</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="e">
         <f>B33*0.365</f>
-        <v>1.0689285714285715E-2</v>
+        <v>#N/A</v>
       </c>
       <c r="E33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>52</v>
       </c>
@@ -5361,7 +5084,7 @@
       <c r="E35" s="9"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>54</v>
       </c>
@@ -5375,210 +5098,219 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="4">
-        <f>SUMIF(Sheet3!A:A, "refrigerator", Sheet3!B:B)</f>
-        <v>0.14000000000000001</v>
+      <c r="B37" s="4" t="e">
+        <f>_xlfn.XLOOKUP("refrigerator",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="4">
-        <f>SUMIF(Sheet3!A:A, "cotton_shirt", Sheet3!B:B)</f>
-        <v>0</v>
+      <c r="E37" s="4" t="e">
+        <f>_xlfn.XLOOKUP("cotton_shirt",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="4">
-        <f>SUMIF(Sheet3!A:A, "food_cooking", Sheet3!B:B)</f>
-        <v>5.0479999999999997E-2</v>
+      <c r="B38" s="4" t="e">
+        <f>_xlfn.XLOOKUP("food_cooking",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E38" s="4">
-        <f>SUMIF(Sheet3!A:A, "cotton_sweatjacket", Sheet3!B:B)</f>
-        <v>0.18383561643835619</v>
+      <c r="E38" s="4" t="e">
+        <f>_xlfn.XLOOKUP("cotton_sweatjacket",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="4">
-        <f>SUMIF(Sheet3!A:A, "oven", Sheet3!B:B)</f>
-        <v>0</v>
+      <c r="B39" s="4" t="e">
+        <f>_xlfn.XLOOKUP("oven",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E39" s="4">
-        <f>SUMIF(Sheet3!A:A, "acrylic_jacket", Sheet3!B:B)</f>
-        <v>0</v>
+      <c r="E39" s="4" t="e">
+        <f>_xlfn.XLOOKUP("acrylic_jacket",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="4">
-        <f>SUMIF(Sheet3!A:A, "washing_machine", Sheet3!B:B)</f>
-        <v>0.62829999999999997</v>
+      <c r="B40" s="4" t="e">
+        <f>_xlfn.XLOOKUP("washing_machine",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E40" s="4">
-        <f>SUMIF(Sheet3!A:A, "woolen_sweater", Sheet3!B:B)</f>
-        <v>0</v>
+      <c r="E40" s="4" t="e">
+        <f>_xlfn.XLOOKUP("woolen_sweater",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B41" s="4">
-        <f>SUMIF(Sheet3!A:A, "personal_cleaning", Sheet3!B:B)</f>
-        <v>0</v>
+      <c r="B41" s="4" t="e">
+        <f>_xlfn.XLOOKUP("shower",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E41" s="4">
-        <f>SUMIF(Sheet3!A:A, "polyester_shirt", Sheet3!B:B)</f>
-        <v>1.1180821917808219</v>
+      <c r="E41" s="4" t="e">
+        <f>_xlfn.XLOOKUP("polyester_shirt",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="4">
-        <f>SUMIF(Sheet3!A:A, "laptop", Sheet3!B:B)</f>
-        <v>0</v>
+      <c r="B42" s="4" t="e">
+        <f>_xlfn.XLOOKUP("laptop",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E42" s="4">
-        <f>SUMIF(Sheet3!A:A, "jeans", Sheet3!B:B)</f>
-        <v>0</v>
+      <c r="E42" s="4" t="e">
+        <f>_xlfn.XLOOKUP("jeans",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="4">
-        <f>SUMIF(Sheet3!A:A, "smartphone", Sheet3!B:B)</f>
-        <v>0</v>
+      <c r="B43" s="4" t="e">
+        <f>_xlfn.XLOOKUP("smartphone",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B44" s="4">
-        <f>SUMIF(Sheet3!A:A, "heating", Sheet3!B:B)</f>
-        <v>0.59900000000000009</v>
+      <c r="B44" s="4" t="e">
+        <f>_xlfn.XLOOKUP("heating",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="4" t="e">
+        <f>_xlfn.XLOOKUP("cooling",Sheet3!A:A,Sheet3!B:B)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B46">
-        <f>SUM(B4:B13,D4:D7,F4:F17)</f>
-        <v>4.8285714285714279E-2</v>
+      <c r="B46" t="e">
+        <f>SUM(B4:B13,D4:D9,F4:F17)</f>
+        <v>#N/A</v>
       </c>
       <c r="C46" t="s">
         <v>34</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="e">
         <f>B46*0.365</f>
-        <v>1.762428571428571E-2</v>
+        <v>#N/A</v>
       </c>
       <c r="E46" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="e">
         <f>SUM(B26:B29,D26:D29,F26:F28)</f>
-        <v>0.1228512720156556</v>
+        <v>#N/A</v>
       </c>
       <c r="C47" t="s">
         <v>34</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="e">
         <f>B47*0.365</f>
-        <v>4.4840714285714289E-2</v>
+        <v>#N/A</v>
       </c>
       <c r="E47" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="e">
         <f>SUM(E37:E42)</f>
-        <v>1.301917808219178</v>
+        <v>#N/A</v>
       </c>
       <c r="C48" t="s">
         <v>34</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="e">
         <f>B48*0.365</f>
-        <v>0.47519999999999996</v>
+        <v>#N/A</v>
       </c>
       <c r="E48" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B49">
-        <f>SUM(B37:B44)</f>
-        <v>1.41778</v>
+      <c r="B49" t="e">
+        <f>SUM(B37:B45)</f>
+        <v>#N/A</v>
       </c>
       <c r="C49" t="s">
         <v>34</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="e">
         <f>B49*0.365</f>
-        <v>0.51748970000000005</v>
+        <v>#N/A</v>
       </c>
       <c r="E49" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D51" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="e">
         <f>SUM(B48,B49,B47,B46)</f>
-        <v>2.8908347945205479</v>
+        <v>#N/A</v>
       </c>
       <c r="F51" t="s">
         <v>34</v>
       </c>
-      <c r="G51">
+      <c r="G51" t="e">
         <f>E51*0.365</f>
-        <v>1.0551546999999999</v>
+        <v>#N/A</v>
       </c>
       <c r="H51" t="s">
         <v>35</v>
@@ -5587,15 +5319,15 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A35:B35"/>
     <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5606,11 +5338,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="D67" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5619,450 +5351,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1">
-        <v>4.2857142857142858E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11">
-        <v>5.7142857142857136E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15">
-        <v>4.2857142857142851E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>98</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>100</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>101</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>102</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>103</v>
-      </c>
-      <c r="B33">
-        <v>2.1369863013698631E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>104</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37">
-        <v>9.1428571428571442E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38">
-        <v>2.928571428571429E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>109</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>110</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>111</v>
-      </c>
-      <c r="B41">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>112</v>
-      </c>
-      <c r="B42">
-        <v>5.0479999999999997E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>113</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>114</v>
-      </c>
-      <c r="B44">
-        <v>0.62829999999999997</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>115</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>116</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>117</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>118</v>
-      </c>
-      <c r="B48">
-        <v>0.59900000000000009</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>119</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>120</v>
-      </c>
-      <c r="B50">
-        <v>0.18383561643835619</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>121</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>122</v>
-      </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>123</v>
-      </c>
-      <c r="B53">
-        <v>1.1180821917808219</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>124</v>
-      </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>